--- a/data/trans_bre/P6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-17,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>110,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,57</t>
+          <t>-6,8; 4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 3,27</t>
+          <t>-6,83; 3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,5</t>
+          <t>-3,02; 2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,02</t>
+          <t>0,38; 6,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 135,39</t>
+          <t>-79,05; 316,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-87,38; 105,25</t>
+          <t>-76,23; 154,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 126,7</t>
+          <t>-62,89; 156,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 321,98</t>
+          <t>-4,15; 396,89</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,77</t>
+          <t>-0,31; 8,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,36</t>
+          <t>-1,1; 7,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 9,28</t>
+          <t>-1,92; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,17</t>
+          <t>-0,55; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 147,5</t>
+          <t>-10,3; 232,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 89,63</t>
+          <t>-14,23; 168,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 101,05</t>
+          <t>-18,58; 112,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 109,38</t>
+          <t>-5,3; 100,83</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,8%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,96</t>
+          <t>-4,97; 6,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 5,21</t>
+          <t>-4,5; 5,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,23</t>
+          <t>-4,73; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,42</t>
+          <t>-1,8; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 47,98</t>
+          <t>-40,09; 106,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 59,29</t>
+          <t>-41,46; 93,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 72,06</t>
+          <t>-36,38; 47,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 67,95</t>
+          <t>-14,16; 72,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,58</t>
+          <t>-1,1; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,83</t>
+          <t>-2,86; 4,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,44</t>
+          <t>-3,47; 4,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 65,79</t>
+          <t>-14,57; 74,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 48,32</t>
+          <t>-32,81; 90,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 55,64</t>
+          <t>-47,73; 104,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 74,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 3,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 3,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 3,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 4,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 68,0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 59,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 49,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 68,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-15,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.7792729037452074</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.173248226095394</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.306822325679283</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.264706981000101</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1505322501918215</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2586106569433708</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1781148315089548</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.062600725079509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 4,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 3,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 2,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 6,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-79,05; 316,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-76,23; 154,86</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-62,89; 156,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 396,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.79590467715184</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.51820417262194</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.433079087043021</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4409240533894686</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7904727936948878</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7692617558242075</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7119109063293085</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1391814333023938</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.794186713366426</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.689072939505724</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.594671516489092</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.466326839188504</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.16532010306723</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.268826499077194</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.355347022022348</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.323648687230203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>70,68%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>45,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>36,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 8,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 7,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 6,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 6,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,3; 232,72</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 168,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 112,05</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 100,83</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.048005165567887</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.152235774697321</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.682483037324352</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.34912602641478</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7067868587203411</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.369021266972424</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4109888822456251</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3054250526083876</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19,8%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3073587591486377</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.052870548179131</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.470548835829802</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.951307879559117</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1030440329435506</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.195079628456009</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1039651700266301</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.142981056362515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 6,22</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 5,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 3,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 6,17</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-40,09; 106,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-41,46; 93,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-36,38; 47,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 72,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.673402596545891</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.345949794254986</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.20735501904078</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.833821331572492</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.327208350671777</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.4259300069659</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.340473069430926</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9149457752199225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>23,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.0305376266089</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.478365197685455</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4699319910563382</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.694239552588695</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1144138500209864</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1464537971174109</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.03219701383310134</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1984533853288689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 3,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 4,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 4,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 74,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-32,81; 90,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,73; 104,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.971734587061531</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.481112893891786</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.346042026206349</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.228138447388317</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4009311182011198</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3362331456593061</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3513623382271433</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1416066243438842</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.21813157488784</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.917511224876855</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.201765672583472</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.760892509503329</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.069348598666804</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.070904560265302</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5538577292552187</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7711366781915162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14,4%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>30,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 3,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 3,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,02</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 4,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 68,0</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,2; 59,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,45; 49,3</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 68,66</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.179899522521103</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.642463847085053</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.955060706484526</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.179179126807061</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3227112635821131</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1814599593665062</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.164712522483672</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3077311127785592</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9340561648567854</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.032036177682115</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.344716262514975</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.005481355834566764</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.122291641440119</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.199001955593084</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1680775092064957</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.001079234840523759</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.086962109197433</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.121401761301547</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.241524248696642</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.024488668097021</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9557031005698938</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7039482833323746</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5139999081043448</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6903550444521216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
